--- a/Result.xlsx
+++ b/Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\GitHub\OS3ELab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2019A00299\Documents\GitHub\O3SELab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EDC471-4E58-41DA-95C6-8749C39BD030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA092D-5185-4286-B922-41471CB48C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,75 +153,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>concept</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-272E-400F-809A-8C82C8842587}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -290,6 +221,440 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="855503472"/>
+        <c:axId val="855512208"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>concept</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>27</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-272E-400F-809A-8C82C8842587}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>rules_CE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$2:$D$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-272E-400F-809A-8C82C8842587}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="855503472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855512208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="855512208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="855503472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -355,7 +720,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-272E-400F-809A-8C82C8842587}"/>
+              <c16:uniqueId val="{00000002-1B4E-4E88-AF49-77D5B7F28DE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -370,6 +735,188 @@
         <c:smooth val="0"/>
         <c:axId val="855503472"/>
         <c:axId val="855512208"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>concept</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>27</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1B4E-4E88-AF49-77D5B7F28DE8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>rules_FM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$2:$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6180</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10168</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-1B4E-4E88-AF49-77D5B7F28DE8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="855503472"/>
@@ -601,6 +1148,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1117,12 +1704,528 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>681036</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2856</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1150,6 +2253,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4764</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084673C9-D52C-440E-9FD1-C383AE13B031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1424,12 +2565,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1457,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1471,7 +2612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2019A00299\Documents\GitHub\O3SELab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA092D-5185-4286-B922-41471CB48C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F1A91E-1D92-4424-8B17-9A669721AB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6180</c:v>
+                  <c:v>6472</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10168</c:v>
@@ -304,10 +304,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>7</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>8</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>27</c:v>
@@ -329,7 +329,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -358,7 +358,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
@@ -382,7 +382,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$4</c15:sqref>
@@ -393,7 +393,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>4</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>8</c:v>
@@ -405,7 +405,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-272E-400F-809A-8C82C8842587}"/>
                   </c:ext>
@@ -706,7 +706,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -807,10 +807,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>7</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>8</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>27</c:v>
@@ -832,7 +832,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$1</c15:sqref>
@@ -861,7 +861,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$4</c15:sqref>
@@ -885,7 +885,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$2:$C$4</c15:sqref>
@@ -896,10 +896,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>14</c:v>
+                        <c:v>6050</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6180</c:v>
+                        <c:v>6472</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>10168</c:v>
@@ -908,7 +908,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-1B4E-4E88-AF49-77D5B7F28DE8}"/>
                   </c:ext>
@@ -1108,6 +1108,307 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>market</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> basket</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$9:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>rules_FM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>rules_CE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DCE-4EF0-AAA9-4721346FC09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="618513792"/>
+        <c:axId val="618511712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="618513792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618511712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618511712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618513792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1188,6 +1489,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1867,6 +2208,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2230,10 +3074,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>67100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2260,16 +3104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>4764</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74392</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2291,6 +3135,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149352</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA48F2FF-8932-E2C8-077E-8FACB39E75D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2562,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2589,13 +3469,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>6050</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2603,10 +3483,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6180</v>
+        <v>6472</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -2626,6 +3506,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
